--- a/data/03019.xlsx
+++ b/data/03019.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,6 +1585,41 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>03019</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MPSOL</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03019.xlsx
+++ b/data/03019.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,6 +1620,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>03019</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MPSOL</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I35" t="n">
+        <v>535000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
